--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>654</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>334</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>640</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>330</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>642</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>331</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -484,16 +484,16 @@
         <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G2" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="n">
         <v>57</v>
       </c>
-      <c r="F3" t="n">
-        <v>66</v>
-      </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="n">
         <v>62</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
         <v>43</v>
@@ -773,7 +773,7 @@
         <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G12" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>647</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>332</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>35</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>636</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>35</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>642</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>332</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2" t="n">
+        <v>102.1963758049203</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>119.1036478646908</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>81</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>51</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25.92592592592592</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102.2934167637958</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>119.1041376819851</v>
       </c>
       <c r="D3" t="n">
         <v>41</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>69</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>61</v>
+      </c>
+      <c r="I3" t="n">
+        <v>148.780487804878</v>
+      </c>
+      <c r="J3" t="n">
+        <v>53</v>
+      </c>
+      <c r="K3" t="n">
+        <v>108.1632653061225</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33</v>
+      </c>
+      <c r="O3" t="n">
+        <v>47.82608695652174</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A4" t="n">
+        <v>102</v>
+      </c>
+      <c r="B4" t="n">
+        <v>102.121278020654</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>120.9144446479462</v>
       </c>
       <c r="D4" t="n">
         <v>36</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>61</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59</v>
+      </c>
+      <c r="K4" t="n">
+        <v>137.2093023255814</v>
+      </c>
+      <c r="L4" t="n">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41</v>
+      </c>
+      <c r="O4" t="n">
+        <v>67.21311475409836</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B5" t="n">
+        <v>97.41662120004533</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>115.1399593668594</v>
       </c>
       <c r="D5" t="n">
         <v>36</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>62</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>61</v>
+      </c>
+      <c r="I5" t="n">
+        <v>169.4444444444444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>120.4545454545455</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>90.19607843137256</v>
+      </c>
+      <c r="N5" t="n">
+        <v>35</v>
+      </c>
+      <c r="O5" t="n">
+        <v>56.45161290322581</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88.23680926372433</v>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>105.7173904193854</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>62</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>52</v>
+      </c>
+      <c r="I6" t="n">
+        <v>144.4444444444444</v>
+      </c>
+      <c r="J6" t="n">
+        <v>44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>37</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72.54901960784314</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41.93548387096774</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A7" t="n">
+        <v>80</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80.21160376952346</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>97.47813002324713</v>
       </c>
       <c r="D7" t="n">
         <v>37</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>62</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>116.2162162162162</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81.81818181818183</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>56.86274509803921</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>29.03225806451613</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A8" t="n">
+        <v>79</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78.70247416750162</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>94.90303345810094</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>64</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>113.5135135135135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75.55555555555556</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>51.92307692307693</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23.4375</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A9" t="n">
+        <v>82</v>
+      </c>
+      <c r="B9" t="n">
+        <v>82.21774091942454</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>100.9311362898433</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>64</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I9" t="n">
+        <v>121.6216216216216</v>
+      </c>
+      <c r="J9" t="n">
+        <v>37</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82.22222222222221</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30</v>
+      </c>
+      <c r="M9" t="n">
+        <v>57.69230769230769</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>28.125</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A10" t="n">
+        <v>83</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83.09919094048108</v>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>101.4466686835438</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>62</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>47</v>
+      </c>
+      <c r="I10" t="n">
+        <v>130.5555555555556</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K10" t="n">
+        <v>93.02325581395348</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>62.74509803921568</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>33.87096774193548</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.60519028604089</v>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>92.65155585876585</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>63</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" t="n">
+        <v>111.1111111111111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>76.74418604651163</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>49.01960784313725</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20.63492063492063</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A12" t="n">
+        <v>63</v>
+      </c>
+      <c r="B12" t="n">
+        <v>62.69756511862601</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>79.42411673359641</v>
       </c>
       <c r="D12" t="n">
         <v>36</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>64</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>43.18181818181818</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21.15384615384615</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-1.5625</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A13" t="n">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53.5457484465898</v>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>72.4001860292324</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>68</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45.94594594594595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-14</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-20.58823529411764</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A14" t="n">
+        <v>54</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53.87628404109932</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>69.60011136285297</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>63</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25.58139534883721</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59.59749673870767</v>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>78.26536972490548</v>
       </c>
       <c r="D15" t="n">
         <v>35</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>65</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" t="n">
+        <v>39.53488372093023</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-7.692307692307693</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A16" t="n">
+        <v>61</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60.92008454884471</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>78.39796250600908</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>62</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>26</v>
+      </c>
+      <c r="I16" t="n">
+        <v>74.28571428571429</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19</v>
+      </c>
+      <c r="K16" t="n">
+        <v>45.23809523809524</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>22</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-1.612903225806452</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BZQ416QM</t>
-        </is>
+      <c r="A17" t="n">
+        <v>53</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52.7083052589546</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>70.91196808836615</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>61</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55.88235294117647</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.26829268292683</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.163265306122449</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-13.11475409836066</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>1236</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>732</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>403</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>53</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>62</v>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -700,10 +700,10 @@
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -735,10 +735,10 @@
         <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -773,7 +773,7 @@
         <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>54</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -910,10 +910,10 @@
         <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2024-12-01</t>
+          <t>2023-01-29 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev Sales</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Historical Sales</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3842 units</t>
+          <t>3821</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Forecast (16 Weeks)</t>
+          <t>4 Weeks Forecast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Forecast (8 Weeks)</t>
+          <t>8 Weeks Forecast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>312</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Forecast (4 Weeks)</t>
+          <t>16 Weeks Forecast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>587</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>44.5</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>54.5</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>55.5</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>50.5</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>39.5</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>47.5</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>51.5</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>44.5</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>46.5</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>42.5</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3821 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>750</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>388</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.5</v>
+        <v>28.5</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.5</v>
+        <v>33.2</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.5</v>
+        <v>28.9</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.5</v>
+        <v>28.5</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>29.7</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39.5</v>
+        <v>25.4</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47.5</v>
+        <v>24.5</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51.5</v>
+        <v>27.5</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>29.7</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>44.5</v>
+        <v>24.4</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46.5</v>
+        <v>21.5</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.5</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>25.7</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42.5</v>
+        <v>21.4</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>431</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>232</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.5</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -500,8 +500,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>77.5</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -535,8 +535,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33.2</v>
+        <v>80.3</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -570,8 +570,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28.9</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -605,8 +605,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>69.8</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -640,8 +640,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -675,8 +675,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29.7</v>
+        <v>67.3</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -710,8 +710,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.4</v>
+        <v>63.5</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -745,8 +745,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.5</v>
+        <v>63.8</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -780,8 +780,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27.5</v>
+        <v>67.8</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -815,8 +815,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.7</v>
+        <v>66.8</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -850,8 +850,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.4</v>
+        <v>56.5</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -885,8 +885,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.5</v>
+        <v>50.3</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -920,8 +920,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>53.8</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -955,8 +955,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25.7</v>
+        <v>57.7</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -990,8 +990,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.4</v>
+        <v>53.59999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1025,8 +1025,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>1048</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>578</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>40.5</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77.5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80.3</v>
+        <v>54.75</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.40000000000001</v>
+        <v>39.4</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.8</v>
+        <v>35.8</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>69.40000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>67.3</v>
+        <v>39.3</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>63.5</v>
+        <v>42.6</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63.8</v>
+        <v>33.8</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67.8</v>
+        <v>36.8</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66.8</v>
+        <v>46.3</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>56.5</v>
+        <v>42.55</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50.3</v>
+        <v>40.3</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.8</v>
+        <v>43.45</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.7</v>
+        <v>44.85</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.59999999999999</v>
+        <v>40.25</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>662</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>334</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -500,8 +500,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -640,8 +640,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.8</v>
+        <v>40.25</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -780,8 +780,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>669</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.75</v>
+        <v>45.8</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.4</v>
+        <v>38.9</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.3</v>
+        <v>35.8</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.4</v>
+        <v>37.9</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42.6</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>37</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40.25</v>
+        <v>33.3</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46.3</v>
+        <v>38.8</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42.55</v>
+        <v>33.5</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.3</v>
+        <v>30.8</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>43.45</v>
+        <v>32.8</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44.85</v>
+        <v>34.7</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.25</v>
+        <v>30.1</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>587</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>316</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.8</v>
+        <v>36.3</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>37</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>590</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>318</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -500,7 +500,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
         <v>45</v>
@@ -535,7 +535,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45.8</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
         <v>47</v>
@@ -570,7 +570,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -605,7 +605,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>36</v>
@@ -640,7 +640,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
         <v>38</v>
@@ -675,7 +675,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>37</v>
@@ -710,7 +710,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.8</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>36</v>
@@ -780,7 +780,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.3</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>36</v>
@@ -815,7 +815,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
         <v>37</v>
@@ -850,7 +850,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>36</v>
@@ -920,7 +920,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>36</v>
@@ -955,7 +955,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>35</v>
@@ -990,7 +990,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>34</v>
@@ -1025,7 +1025,7 @@
           <t>H610M S2H</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>589</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F3" t="n">
         <v>45</v>
       </c>
-      <c r="E3" t="n">
-        <v>54</v>
-      </c>
-      <c r="F3" t="n">
-        <v>63</v>
-      </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
-        <v>48</v>
-      </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
-        <v>37</v>
-      </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="n">
         <v>33</v>
       </c>
-      <c r="D10" t="n">
-        <v>36</v>
-      </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G12" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
         <v>34</v>
       </c>
-      <c r="D13" t="n">
-        <v>37</v>
-      </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2024-11-24</t>
+          <t>2023-01-29 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3821 units</t>
+          <t>4025 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>620</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>307</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>35</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>33</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>38</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>44</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>52</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>36</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>32</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>39</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>45</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>55</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>37</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>33</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>40</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>46</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>56</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>38</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>34</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>47</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>57</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>38</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>34</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>40</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>47</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>57</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>40</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>47</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>38</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>41</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>48</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>59</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>47</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>35</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>42</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>49</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>60</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>37</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>33</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>40</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>47</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>58</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>37</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>33</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>40</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>48</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>59</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>37</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>33</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>40</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>47</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>58</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>38</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>34</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>41</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>49</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>61</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>36</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>32</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>39</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>46</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>57</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>43</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>32</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>38</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>47</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>59</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>42</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>32</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>38</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>46</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>58</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>42</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>31</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>38</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>46</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>58</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>H610M S2H</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>33</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>35</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
         <v>33</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>33</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2024-12-29</t>
+          <t>2023-01-29 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4025 units</t>
+          <t>4036 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>679</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>378</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>47</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" t="n">
         <v>49</v>
       </c>
-      <c r="E3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45</v>
-      </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>46</v>
-      </c>
       <c r="H4" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="n">
         <v>50</v>
       </c>
-      <c r="E5" t="n">
-        <v>34</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47</v>
-      </c>
       <c r="H5" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
         <v>42</v>
       </c>
-      <c r="E11" t="n">
-        <v>33</v>
-      </c>
-      <c r="F11" t="n">
-        <v>40</v>
-      </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
         <v>61</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>39</v>
+      </c>
+      <c r="E14" t="n">
         <v>35</v>
       </c>
-      <c r="E14" t="n">
-        <v>32</v>
-      </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H17" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2025-01-05</t>
+          <t>2023-01-29 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4036 units</t>
+          <t>4054 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>706</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>359</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>725</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>379</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>192</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>35</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>35</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>756</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>424</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v>35</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
         <v>35</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
         <v>34</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2025-01-12</t>
+          <t>2023-01-29 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4054 units</t>
+          <t>4056 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>598</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>295</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4056 units</t>
+          <t>4152 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>294</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
         <v>36</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>35</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>35</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
         <v>35</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
         <v>34</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>671</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>381</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
+++ b/Sufficient data/forecast_summary_B0BZQ416QM.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H6" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
         <v>48</v>
       </c>
-      <c r="E8" t="n">
-        <v>37</v>
-      </c>
-      <c r="F8" t="n">
-        <v>44</v>
-      </c>
       <c r="G8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>48</v>
+      </c>
+      <c r="E11" t="n">
         <v>39</v>
       </c>
-      <c r="E11" t="n">
-        <v>35</v>
-      </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H12" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H13" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H14" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H15" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H16" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H17" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-29 to 2025-01-19</t>
+          <t>2023-01-29 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4152 units</t>
+          <t>4226 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>836</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>448</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>233</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
     </row>
